--- a/Parcial 2/01 Base de datos/03 Filtro avanzado.xlsx
+++ b/Parcial 2/01 Base de datos/03 Filtro avanzado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 2\01 Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9FB443-0F8A-4970-9170-EEF544227FCE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C93AE71-5420-4189-8670-5C843A98D301}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="8235" activeTab="4" xr2:uid="{0F87037C-F902-471F-BE37-91DBA340F17C}"/>
   </bookViews>
@@ -2640,7 +2640,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2731,14 +2731,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2757,6 +2757,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11570,7 +11574,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11638,7 +11642,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24154,7 +24158,7 @@
   <dimension ref="A1:AM127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24162,7 +24166,7 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.73046875" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
@@ -24195,10 +24199,10 @@
       <c r="F1" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>821</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -24311,10 +24315,10 @@
       <c r="F2" t="s">
         <v>776</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <v>42394.963111898149</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I2" t="s">
@@ -24373,10 +24377,10 @@
       <c r="F3" t="s">
         <v>776</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <v>42395.963111863428</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <v>42435.557231145831</v>
       </c>
       <c r="I3" t="s">
@@ -24432,10 +24436,10 @@
       <c r="F4" t="s">
         <v>776</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>42396.963111863428</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I4" t="s">
@@ -24548,10 +24552,10 @@
       <c r="F5" t="s">
         <v>776</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>42397.963111863428</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I5" t="s">
@@ -24664,10 +24668,10 @@
       <c r="F6" t="s">
         <v>776</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <v>42398.963111863428</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="12">
         <v>42708.00815238426</v>
       </c>
       <c r="I6" t="s">
@@ -24780,10 +24784,10 @@
       <c r="F7" t="s">
         <v>778</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>42399.963111863428</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I7" t="s">
@@ -24896,10 +24900,10 @@
       <c r="F8" t="s">
         <v>776</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>42400.963111863428</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <v>42535.996591655094</v>
       </c>
       <c r="I8" t="s">
@@ -25012,10 +25016,10 @@
       <c r="F9" t="s">
         <v>776</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="12">
         <v>42401.963111863428</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I9" t="s">
@@ -25128,10 +25132,10 @@
       <c r="F10" t="s">
         <v>771</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="12">
         <v>42402.963111863428</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I10" t="s">
@@ -25244,10 +25248,10 @@
       <c r="F11" t="s">
         <v>776</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <v>42403.963111863428</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="12">
         <v>42654.366416168981</v>
       </c>
       <c r="I11" t="s">
@@ -25360,10 +25364,10 @@
       <c r="F12" t="s">
         <v>776</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="12">
         <v>42404.963111863428</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="12">
         <v>42507.51867690972</v>
       </c>
       <c r="I12" t="s">
@@ -25476,10 +25480,10 @@
       <c r="F13" t="s">
         <v>776</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="12">
         <v>42405.963111863428</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I13" t="s">
@@ -25592,10 +25596,10 @@
       <c r="F14" t="s">
         <v>776</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="12">
         <v>42406.963111863428</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I14" t="s">
@@ -25708,10 +25712,10 @@
       <c r="F15" t="s">
         <v>776</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="12">
         <v>42407.963111863428</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I15" t="s">
@@ -25824,10 +25828,10 @@
       <c r="F16" t="s">
         <v>771</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <v>42408.963111863428</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="12">
         <v>42484.041089456019</v>
       </c>
       <c r="I16" t="s">
@@ -25940,10 +25944,10 @@
       <c r="F17" t="s">
         <v>776</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <v>42409.963111863428</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I17" t="s">
@@ -26056,10 +26060,10 @@
       <c r="F18" t="s">
         <v>778</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <v>42410.963111863428</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I18" t="s">
@@ -26172,10 +26176,10 @@
       <c r="F19" t="s">
         <v>776</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <v>42411.963111863428</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="12">
         <v>42629.688272754633</v>
       </c>
       <c r="I19" t="s">
@@ -26288,10 +26292,10 @@
       <c r="F20" t="s">
         <v>776</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="12">
         <v>42412.963111863428</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="12">
         <v>42598.254541319446</v>
       </c>
       <c r="I20" t="s">
@@ -26404,10 +26408,10 @@
       <c r="F21" t="s">
         <v>776</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="12">
         <v>42413.963111863428</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="12">
         <v>42569.890939675926</v>
       </c>
       <c r="I21" t="s">
@@ -26520,10 +26524,10 @@
       <c r="F22" t="s">
         <v>776</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="12">
         <v>42414.963111863428</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I22" t="s">
@@ -26636,10 +26640,10 @@
       <c r="F23" t="s">
         <v>776</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="12">
         <v>42415.963111863428</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I23" t="s">
@@ -26752,10 +26756,10 @@
       <c r="F24" t="s">
         <v>776</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <v>42416.963111863428</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="12">
         <v>42709.891184398148</v>
       </c>
       <c r="I24" t="s">
@@ -26868,10 +26872,10 @@
       <c r="F25" t="s">
         <v>776</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="12">
         <v>42417.963111863428</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I25" t="s">
@@ -26984,10 +26988,10 @@
       <c r="F26" t="s">
         <v>776</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="12">
         <v>42418.963111863428</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="12">
         <v>42383.460222662034</v>
       </c>
       <c r="I26" t="s">
@@ -27100,10 +27104,10 @@
       <c r="F27" t="s">
         <v>776</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="12">
         <v>42419.963111863428</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I27" t="s">
@@ -27216,10 +27220,10 @@
       <c r="F28" t="s">
         <v>776</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="12">
         <v>42420.963111863428</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="12">
         <v>42391.154436099532</v>
       </c>
       <c r="I28" t="s">
@@ -27332,10 +27336,10 @@
       <c r="F29" t="s">
         <v>771</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <v>42421.963111863428</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I29" t="s">
@@ -27448,10 +27452,10 @@
       <c r="F30" t="s">
         <v>776</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="12">
         <v>42422.963111863428</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I30" t="s">
@@ -27564,10 +27568,10 @@
       <c r="F31" t="s">
         <v>776</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <v>42423.963111863428</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="12">
         <v>42505.138982615739</v>
       </c>
       <c r="I31" t="s">
@@ -27680,10 +27684,10 @@
       <c r="F32" t="s">
         <v>776</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="12">
         <v>42424.963111863428</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="12">
         <v>42582.126716423612</v>
       </c>
       <c r="I32" t="s">
@@ -27796,10 +27800,10 @@
       <c r="F33" t="s">
         <v>778</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="12">
         <v>42425.963111863428</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="12">
         <v>42442.91236170139</v>
       </c>
       <c r="I33" t="s">
@@ -27912,10 +27916,10 @@
       <c r="F34" t="s">
         <v>778</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="12">
         <v>42426.963111863428</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="12">
         <v>42483.113836574077</v>
       </c>
       <c r="I34" t="s">
@@ -28028,10 +28032,10 @@
       <c r="F35" t="s">
         <v>776</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="12">
         <v>42427.963111863428</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I35" t="s">
@@ -28144,10 +28148,10 @@
       <c r="F36" t="s">
         <v>776</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="12">
         <v>42428.963111863428</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="12">
         <v>42384.741513298613</v>
       </c>
       <c r="I36" t="s">
@@ -28260,10 +28264,10 @@
       <c r="F37" t="s">
         <v>776</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="12">
         <v>42429.963111863428</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I37" t="s">
@@ -28376,10 +28380,10 @@
       <c r="F38" t="s">
         <v>776</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="12">
         <v>42430.963111863428</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I38" t="s">
@@ -28492,10 +28496,10 @@
       <c r="F39" t="s">
         <v>776</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="12">
         <v>42431.963111863428</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I39" t="s">
@@ -28608,10 +28612,10 @@
       <c r="F40" t="s">
         <v>776</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="12">
         <v>42432.963111863428</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="12">
         <v>42431.299169456019</v>
       </c>
       <c r="I40" t="s">
@@ -28667,10 +28671,10 @@
       <c r="F41" t="s">
         <v>776</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="12">
         <v>42433.963111863428</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I41" t="s">
@@ -28783,10 +28787,10 @@
       <c r="F42" t="s">
         <v>776</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="12">
         <v>42434.963111863428</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="12">
         <v>42471.410752094904</v>
       </c>
       <c r="I42" t="s">
@@ -28845,10 +28849,10 @@
       <c r="F43" t="s">
         <v>776</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="12">
         <v>42435.963111863428</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="12">
         <v>42394.292098831022</v>
       </c>
       <c r="I43" t="s">
@@ -28904,10 +28908,10 @@
       <c r="F44" t="s">
         <v>776</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="12">
         <v>42436.963111863428</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="12">
         <v>42608.069957118059</v>
       </c>
       <c r="I44" t="s">
@@ -29020,10 +29024,10 @@
       <c r="F45" t="s">
         <v>776</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="12">
         <v>42437.963111863428</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I45" t="s">
@@ -29136,10 +29140,10 @@
       <c r="F46" t="s">
         <v>776</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="12">
         <v>42438.963111863428</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I46" t="s">
@@ -29252,10 +29256,10 @@
       <c r="F47" t="s">
         <v>776</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="12">
         <v>42439.963111863428</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I47" t="s">
@@ -29368,10 +29372,10 @@
       <c r="F48" t="s">
         <v>778</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="12">
         <v>42440.963111863428</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I48" t="s">
@@ -29484,10 +29488,10 @@
       <c r="F49" t="s">
         <v>776</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="12">
         <v>42441.963111863428</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="12">
         <v>42445.263622002312</v>
       </c>
       <c r="I49" t="s">
@@ -29600,10 +29604,10 @@
       <c r="F50" t="s">
         <v>776</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="12">
         <v>42442.963111863428</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I50" t="s">
@@ -29716,10 +29720,10 @@
       <c r="F51" t="s">
         <v>778</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="12">
         <v>42443.963111863428</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I51" t="s">
@@ -29832,10 +29836,10 @@
       <c r="F52" t="s">
         <v>776</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="12">
         <v>42444.963111863428</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I52" t="s">
@@ -29948,10 +29952,10 @@
       <c r="F53" t="s">
         <v>776</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="12">
         <v>42445.963111863428</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I53" t="s">
@@ -30064,10 +30068,10 @@
       <c r="F54" t="s">
         <v>776</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="12">
         <v>42446.963111863428</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="12">
         <v>42375.274595625</v>
       </c>
       <c r="I54" t="s">
@@ -30180,10 +30184,10 @@
       <c r="F55" t="s">
         <v>776</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="12">
         <v>42447.963111863428</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="12">
         <v>42487.312650914348</v>
       </c>
       <c r="I55" t="s">
@@ -30296,10 +30300,10 @@
       <c r="F56" t="s">
         <v>776</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="12">
         <v>42448.963111863428</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="12">
         <v>42453.780076516203</v>
       </c>
       <c r="I56" t="s">
@@ -30412,10 +30416,10 @@
       <c r="F57" t="s">
         <v>776</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="12">
         <v>42449.963111863428</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I57" t="s">
@@ -30528,10 +30532,10 @@
       <c r="F58" t="s">
         <v>771</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="12">
         <v>42450.963111863428</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I58" t="s">
@@ -30644,10 +30648,10 @@
       <c r="F59" t="s">
         <v>776</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="12">
         <v>42451.963111863428</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="12">
         <v>42702.00693466435</v>
       </c>
       <c r="I59" t="s">
@@ -30760,10 +30764,10 @@
       <c r="F60" t="s">
         <v>776</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="12">
         <v>42452.963111863428</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="12">
         <v>42695.276904166662</v>
       </c>
       <c r="I60" t="s">
@@ -30876,10 +30880,10 @@
       <c r="F61" t="s">
         <v>776</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="12">
         <v>42453.963111863428</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I61" t="s">
@@ -30992,10 +30996,10 @@
       <c r="F62" t="s">
         <v>776</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="12">
         <v>42454.963111863428</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="12">
         <v>42527.891407986113</v>
       </c>
       <c r="I62" t="s">
@@ -31108,10 +31112,10 @@
       <c r="F63" t="s">
         <v>776</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="12">
         <v>42455.963111863428</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I63" t="s">
@@ -31224,10 +31228,10 @@
       <c r="F64" t="s">
         <v>771</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="12">
         <v>42456.963111863428</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I64" t="s">
@@ -31340,10 +31344,10 @@
       <c r="F65" t="s">
         <v>776</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="12">
         <v>42457.963111863428</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="12">
         <v>42628.740744409719</v>
       </c>
       <c r="I65" t="s">
@@ -31456,10 +31460,10 @@
       <c r="F66" t="s">
         <v>778</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="12">
         <v>42458.963111863428</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I66" t="s">
@@ -31572,10 +31576,10 @@
       <c r="F67" t="s">
         <v>771</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="12">
         <v>42459.963111863428</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I67" t="s">
@@ -31688,10 +31692,10 @@
       <c r="F68" t="s">
         <v>776</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="12">
         <v>42460.963111863428</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="12">
         <v>42558.638135277783</v>
       </c>
       <c r="I68" t="s">
@@ -31804,10 +31808,10 @@
       <c r="F69" t="s">
         <v>776</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="12">
         <v>42461.963111863428</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="12">
         <v>42568.271304618058</v>
       </c>
       <c r="I69" t="s">
@@ -31920,10 +31924,10 @@
       <c r="F70" t="s">
         <v>771</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="12">
         <v>42462.963111863428</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I70" t="s">
@@ -32036,10 +32040,10 @@
       <c r="F71" t="s">
         <v>776</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="12">
         <v>42463.963111863428</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I71" t="s">
@@ -32152,10 +32156,10 @@
       <c r="F72" t="s">
         <v>778</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="12">
         <v>42464.963111863428</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I72" t="s">
@@ -32268,10 +32272,10 @@
       <c r="F73" t="s">
         <v>776</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="12">
         <v>42465.963111863428</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="12">
         <v>42728.564691249994</v>
       </c>
       <c r="I73" t="s">
@@ -32384,10 +32388,10 @@
       <c r="F74" t="s">
         <v>776</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="12">
         <v>42466.963111863428</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I74" t="s">
@@ -32500,10 +32504,10 @@
       <c r="F75" t="s">
         <v>776</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="12">
         <v>42467.963111863428</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="12">
         <v>42588.25422545139</v>
       </c>
       <c r="I75" t="s">
@@ -32616,10 +32620,10 @@
       <c r="F76" t="s">
         <v>776</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="12">
         <v>42468.963111863428</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="12">
         <v>42690.507941782409</v>
       </c>
       <c r="I76" t="s">
@@ -32732,10 +32736,10 @@
       <c r="F77" t="s">
         <v>778</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="12">
         <v>42469.963111863428</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="12">
         <v>42562.462966099534</v>
       </c>
       <c r="I77" t="s">
@@ -32848,10 +32852,10 @@
       <c r="F78" t="s">
         <v>776</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="12">
         <v>42470.963111863428</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I78" t="s">
@@ -32964,10 +32968,10 @@
       <c r="F79" t="s">
         <v>776</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="12">
         <v>42471.963111863428</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I79" t="s">
@@ -33080,10 +33084,10 @@
       <c r="F80" t="s">
         <v>778</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="12">
         <v>42472.963111863428</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I80" t="s">
@@ -33196,10 +33200,10 @@
       <c r="F81" t="s">
         <v>778</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="12">
         <v>42473.963111863428</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="12">
         <v>42688.181091134262</v>
       </c>
       <c r="I81" t="s">
@@ -33312,10 +33316,10 @@
       <c r="F82" t="s">
         <v>776</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="12">
         <v>42474.963111863428</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I82" t="s">
@@ -33428,10 +33432,10 @@
       <c r="F83" t="s">
         <v>776</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="12">
         <v>42475.963111863428</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="12">
         <v>42458.037368634265</v>
       </c>
       <c r="I83" t="s">
@@ -33544,10 +33548,10 @@
       <c r="F84" t="s">
         <v>771</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="12">
         <v>42476.963111863428</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I84" t="s">
@@ -33660,10 +33664,10 @@
       <c r="F85" t="s">
         <v>778</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="12">
         <v>42477.963111863428</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I85" t="s">
@@ -33776,10 +33780,10 @@
       <c r="F86" t="s">
         <v>776</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="12">
         <v>42478.963111863428</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="12">
         <v>42558.727350416666</v>
       </c>
       <c r="I86" t="s">
@@ -33892,10 +33896,10 @@
       <c r="F87" t="s">
         <v>776</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="12">
         <v>42479.963111863428</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="12">
         <v>42730.30831252315</v>
       </c>
       <c r="I87" t="s">
@@ -34008,10 +34012,10 @@
       <c r="F88" t="s">
         <v>778</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="12">
         <v>42480.963111863428</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="12">
         <v>42615.016156631944</v>
       </c>
       <c r="I88" t="s">
@@ -34124,10 +34128,10 @@
       <c r="F89" t="s">
         <v>778</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="12">
         <v>42481.963111863428</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I89" t="s">
@@ -34240,10 +34244,10 @@
       <c r="F90" t="s">
         <v>776</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="12">
         <v>42482.963111863428</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="12">
         <v>42587.991040949069</v>
       </c>
       <c r="I90" t="s">
@@ -34356,10 +34360,10 @@
       <c r="F91" t="s">
         <v>776</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="12">
         <v>42483.963111863428</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="12">
         <v>42577.463522881946</v>
       </c>
       <c r="I91" t="s">
@@ -34472,10 +34476,10 @@
       <c r="F92" t="s">
         <v>771</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="12">
         <v>42484.963111863428</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I92" t="s">
@@ -34588,10 +34592,10 @@
       <c r="F93" t="s">
         <v>776</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="12">
         <v>42485.963111863428</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I93" t="s">
@@ -34704,10 +34708,10 @@
       <c r="F94" t="s">
         <v>776</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="12">
         <v>42486.963111863428</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I94" t="s">
@@ -34763,10 +34767,10 @@
       <c r="F95" t="s">
         <v>778</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="12">
         <v>42487.963111863428</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="12">
         <v>42485.442449826383</v>
       </c>
       <c r="I95" t="s">
@@ -34879,10 +34883,10 @@
       <c r="F96" t="s">
         <v>776</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="12">
         <v>42488.963111863428</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I96" t="s">
@@ -34944,10 +34948,10 @@
       <c r="F97" t="s">
         <v>776</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="12">
         <v>42489.963111863428</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="12">
         <v>42513.979065740743</v>
       </c>
       <c r="I97" t="s">
@@ -35003,10 +35007,10 @@
       <c r="F98" t="s">
         <v>778</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="12">
         <v>42490.963111863428</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I98" t="s">
@@ -35119,10 +35123,10 @@
       <c r="F99" t="s">
         <v>776</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="12">
         <v>42491.963111863428</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="12">
         <v>42396.04086601852</v>
       </c>
       <c r="I99" t="s">
@@ -35235,10 +35239,10 @@
       <c r="F100" t="s">
         <v>776</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="12">
         <v>42492.963111863428</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="12" t="s">
         <v>769</v>
       </c>
       <c r="I100" t="s">
@@ -35351,10 +35355,10 @@
       <c r="F101" t="s">
         <v>771</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="12">
         <v>42493.963111863428</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="12">
         <v>42407.165896180551</v>
       </c>
       <c r="I101" t="s">
@@ -35467,10 +35471,10 @@
       <c r="F102" t="s">
         <v>771</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="12">
         <v>42494.963111863428</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="12">
         <v>42380.54670136574</v>
       </c>
       <c r="I102" t="s">
